--- a/map.xlsx
+++ b/map.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>dfdsf</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <t>25</t>
   </si>
@@ -31,7 +25,7 @@
     <t>26</t>
   </si>
   <si>
-    <t>a c</t>
+    <t xml:space="preserve">b k </t>
   </si>
   <si>
     <t>23</t>
@@ -91,10 +85,7 @@
     <t>b j</t>
   </si>
   <si>
-    <t xml:space="preserve">b j </t>
-  </si>
-  <si>
-    <t xml:space="preserve">b k </t>
+    <t>b k</t>
   </si>
   <si>
     <t>1226</t>
@@ -145,6 +136,9 @@
     <t>b s</t>
   </si>
   <si>
+    <t>enter</t>
+  </si>
+  <si>
     <t>1015</t>
   </si>
   <si>
@@ -178,6 +172,15 @@
     <t>36</t>
   </si>
   <si>
+    <t>b l</t>
+  </si>
+  <si>
+    <t>1225</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
@@ -193,13 +196,13 @@
     <t>07</t>
   </si>
   <si>
+    <t>c i</t>
+  </si>
+  <si>
     <t>0520</t>
   </si>
   <si>
     <t>c e</t>
-  </si>
-  <si>
-    <t>c i</t>
   </si>
   <si>
     <t>0521</t>
@@ -243,7 +246,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,12 +256,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
@@ -291,14 +288,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -307,9 +298,6 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -619,14 +607,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -638,580 +626,516 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4"/>
-    </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="3">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="3">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="3">
+        <v>1125</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="5">
-        <v>1125</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="3"/>
+      <c r="B30" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="3"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="3"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="3"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="3"/>
+      <c r="B37" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+      <c r="A41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="A42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="A43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="A44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="A45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="3"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+      <c r="A47" s="3"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+      <c r="A48" s="3"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+      <c r="A49" s="3"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+      <c r="A50" s="3"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+      <c r="A51" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="5"/>
-      <c r="B31" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
-      <c r="A32" s="5"/>
-      <c r="B32" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="5"/>
-      <c r="B35" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
-      <c r="A36" s="5"/>
-      <c r="B36" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
-      <c r="A37" s="5"/>
-      <c r="B37" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
-      <c r="A38" s="5"/>
-      <c r="B38" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
-      <c r="A39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
-      <c r="A40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
-      <c r="A41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
-      <c r="A42" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
-      <c r="A43" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
-      <c r="A44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
-      <c r="A45" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
-      <c r="A46" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+      <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
-      <c r="A47" s="5"/>
-      <c r="B47" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
-      <c r="A48" s="5"/>
-      <c r="B48" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
-      <c r="A49" s="5"/>
-      <c r="B49" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
-      <c r="A50" s="5"/>
-      <c r="B50" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
-      <c r="A51" s="3" t="s">
+      <c r="B52" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+      <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
-      <c r="A52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
-      <c r="A53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="4"/>
+      <c r="B53" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
-      <c r="A54" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="4" t="s">
+      <c r="A54" s="3"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+      <c r="A55" s="3"/>
+      <c r="B55" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+      <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
-      <c r="A55" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
-      <c r="A56" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
-      <c r="A57" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+      <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B59" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
-      <c r="A58" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+      <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
-      <c r="A59" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+      <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
-      <c r="A60" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+      <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
-      <c r="A61" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+      <c r="A64" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
-      <c r="A62" s="5"/>
-      <c r="B62" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
-      <c r="A63" s="5"/>
-      <c r="B63" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
-      <c r="A64" s="5"/>
-      <c r="B64" s="4"/>
+      <c r="B64" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
-      <c r="A65" s="5"/>
-      <c r="B65" s="4"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
-      <c r="A66" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="4" t="s">
+      <c r="A66" s="3"/>
+      <c r="B66" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+      <c r="A67" s="3"/>
+      <c r="B67" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+      <c r="A68" s="3"/>
+      <c r="B68" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+      <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
-      <c r="A67" s="5"/>
-      <c r="B67" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
-      <c r="A68" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
-      <c r="A69" s="5"/>
-      <c r="B69" s="4"/>
+      <c r="B69" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
-      <c r="A70" s="5"/>
-      <c r="B70" s="4"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
-      <c r="A71" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="4"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="3"/>
+      <c r="B72" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+      <c r="A73" s="3"/>
+      <c r="B73" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+      <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
-      <c r="A73" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B73" s="4" t="s">
+      <c r="B74" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+      <c r="A75" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
-      <c r="A74" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
-      <c r="A75" s="3"/>
-      <c r="B75" s="4"/>
+      <c r="B75" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
       <c r="A76" s="3"/>
-      <c r="B76" s="4"/>
+      <c r="B76" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
-      <c r="A77" s="5"/>
-      <c r="B77" s="6"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
-      <c r="A78" s="5"/>
-      <c r="B78" s="6"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
       <c r="A79" s="3"/>
-      <c r="B79" s="4"/>
+      <c r="B79" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
       <c r="A80" s="3"/>
-      <c r="B80" s="4"/>
+      <c r="B80" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
-      <c r="A81" s="5"/>
-      <c r="B81" s="6"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
-      <c r="A82" s="5"/>
-      <c r="B82" s="6"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
-      <c r="A83" s="5"/>
-      <c r="B83" s="6"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
-      <c r="A84" s="5"/>
-      <c r="B84" s="6"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
-      <c r="A85" s="5"/>
-      <c r="B85" s="6"/>
+      <c r="A85" s="3"/>
+      <c r="B85" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
-      <c r="A86" s="5"/>
-      <c r="B86" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
-      <c r="A87" s="5"/>
-      <c r="B87" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
-      <c r="A88" s="5"/>
-      <c r="B88" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
-      <c r="A89" s="5"/>
-      <c r="B89" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
-      <c r="A90" s="5"/>
-      <c r="B90" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
-      <c r="A91" s="5"/>
-      <c r="B91" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
-      <c r="A92" s="5"/>
-      <c r="B92" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
-      <c r="A93" s="5"/>
-      <c r="B93" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
-      <c r="A94" s="5"/>
-      <c r="B94" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
-      <c r="A95" s="5"/>
-      <c r="B95" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
-      <c r="A96" s="5"/>
-      <c r="B96" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
-      <c r="A97" s="5"/>
-      <c r="B97" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
-      <c r="A98" s="5"/>
-      <c r="B98" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
-      <c r="A99" s="5"/>
-      <c r="B99" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
-      <c r="A100" s="5"/>
-      <c r="B100" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
-      <c r="A101" s="5"/>
-      <c r="B101" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
-      <c r="A102" s="5"/>
-      <c r="B102" s="6"/>
+      <c r="A86" s="3"/>
+      <c r="B86" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/map.xlsx
+++ b/map.xlsx
@@ -256,7 +256,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
     </font>
@@ -300,10 +300,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,7 +607,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -650,392 +650,404 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
+      <c r="A6" s="3">
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="3">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="3">
+        <v>1125</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="3">
-        <v>29</v>
+      <c r="A11" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="3">
-        <v>30</v>
+      <c r="A12" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="3">
-        <v>1125</v>
+      <c r="A15" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A25" s="3"/>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B27" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B28" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="3"/>
-      <c r="B30" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="B30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
-      <c r="A32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="2"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="3"/>
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="3"/>
+      <c r="A35" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="B35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
-      <c r="A36" s="3"/>
+      <c r="A36" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B36" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
-      <c r="A37" s="3"/>
-      <c r="B37" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
-      <c r="A41" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A41" s="3"/>
       <c r="B41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
-      <c r="A42" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A42" s="3"/>
       <c r="B42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
-      <c r="A43" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A43" s="3"/>
       <c r="B43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
-      <c r="A44" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A44" s="3"/>
       <c r="B44" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
-      <c r="A45" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A45" s="3"/>
       <c r="B45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
-      <c r="A46" s="3"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
-      <c r="A47" s="3"/>
+      <c r="A47" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B47" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
-      <c r="A48" s="3"/>
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B48" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
-      <c r="A49" s="3"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
-      <c r="A50" s="3"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
-      <c r="A54" s="3"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
-      <c r="A55" s="3"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="1" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>60</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B59" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B60" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
-      <c r="A61" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A61" s="3"/>
       <c r="B61" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
-      <c r="A62" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A62" s="3"/>
       <c r="B62" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
-      <c r="A63" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A63" s="3"/>
+      <c r="B63" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
-      <c r="A64" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="A64" s="3"/>
+      <c r="B64" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
       <c r="A65" s="3"/>
@@ -1054,12 +1066,8 @@
       <c r="B68" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
-      <c r="A69" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="A69" s="3"/>
+      <c r="B69" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
       <c r="A70" s="3"/>
@@ -1068,74 +1076,6 @@
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
       <c r="A71" s="3"/>
       <c r="B71" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
-      <c r="A72" s="3"/>
-      <c r="B72" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
-      <c r="A73" s="3"/>
-      <c r="B73" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
-      <c r="A74" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B74" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
-      <c r="A75" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B75" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
-      <c r="A76" s="3"/>
-      <c r="B76" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
-      <c r="A77" s="3"/>
-      <c r="B77" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
-      <c r="A78" s="3"/>
-      <c r="B78" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
-      <c r="A79" s="3"/>
-      <c r="B79" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
-      <c r="A80" s="3"/>
-      <c r="B80" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
-      <c r="A81" s="3"/>
-      <c r="B81" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
-      <c r="A82" s="3"/>
-      <c r="B82" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
-      <c r="A83" s="3"/>
-      <c r="B83" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
-      <c r="A84" s="3"/>
-      <c r="B84" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
-      <c r="A85" s="3"/>
-      <c r="B85" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
-      <c r="A86" s="3"/>
-      <c r="B86" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
